--- a/unisim_pvt.xlsx
+++ b/unisim_pvt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/marcelogarret_petrobras_com_br/Documents/Desktop/Mestrado Computação Aplicada - IFES/Balanço de Materiais/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/marcelogarret_petrobras_com_br/Documents/Desktop/Mestrado/projeto_mestrado/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="134" documentId="8_{54276722-73CA-4DC4-AA0E-75ABF0F89BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30C4D979-7D32-4E44-9B90-9D9405F7F4CC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B30C7EA4-6F59-460D-A3BC-492FF4DC9DF6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{B30C7EA4-6F59-460D-A3BC-492FF4DC9DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="unisim" sheetId="1" r:id="rId1"/>
@@ -3817,9 +3817,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>210.03</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>35.49</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>41.82</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>34.659999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>49.2</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>38.020000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>59.75</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>42.83</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>68.540000000000006</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>46.85</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>80.849999999999994</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>52.51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>93.86</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>58.51</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>105.81</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>64.06</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>121.98</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>133.94</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>148</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>83.83</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>166.29</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>92.49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>193.36</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>105.42</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>210.03</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>113.06179994098557</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>213.26</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>113.06179994098557</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>219.38</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>113.06179994098557</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>229.5</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>113.06179994098557</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>248</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>113.06179994098557</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>283.02</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>113.06179994098557</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>316.91000000000003</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>113.06179994098557</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>352.63</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>113.06179994098557</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>360</v>
       </c>
